--- a/biology/Zoologie/Ilia_Darevski/Ilia_Darevski.xlsx
+++ b/biology/Zoologie/Ilia_Darevski/Ilia_Darevski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ilia Sergueïevitch Darevski (en russe : Илья Сергеевич Даревский) est un biologiste et un herpétologue russe, né le 18 décembre 1924 à Kiev et mort le 8 août 2009 à Saint-Pétersbourg.
 En collaboration avec Josef Friedrich Schmidtler (1942-), il a rassemblé et étudié 1 977 spécimens en provenance de Transcaucasie et de Turquie. Leur collection est conservée au Muséum d'histoire naturelle de Vienne.
@@ -514,7 +526,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Orlov, Nikolai and Ilya S. Darevsky 1,999 Description of a new species of mainland Goniurosaurus genus, from the north-eastern Vietnam. Russ. J. Herpetol. J. Herpetol. 6 (1): 72-78. 6 (1): 72-78.
 Darevsky I S; Kupriyanova L A; Roshchin V V 1984, A new all-female triploid species of gecko and karyological data on the bisexual Hemidactylus frenatus from Vietnam. Journal of Herpetology 18 (3) : 277-284
